--- a/Carteira.xlsx
+++ b/Carteira.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Douglas Malvares\Box\INVEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272CCE58-DD80-427D-8ED0-A6F7E78AFD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2E4444-CA7A-47B1-952D-A93179BB38A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="881" activeTab="2" xr2:uid="{A7CB2594-04AB-403C-897F-43306B7CB2E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="881" xr2:uid="{A7CB2594-04AB-403C-897F-43306B7CB2E0}"/>
   </bookViews>
   <sheets>
     <sheet name="PAPEIS" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="INDICES" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LANÇAMENTOS!$A$1:$D$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LANÇAMENTOS!$A$1:$D$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="66">
   <si>
     <t>Data da Compra</t>
   </si>
@@ -225,18 +225,6 @@
   </si>
   <si>
     <t>Cemig</t>
-  </si>
-  <si>
-    <t>BTC</t>
-  </si>
-  <si>
-    <t>Bitcoin</t>
-  </si>
-  <si>
-    <t>Criptomoedas</t>
-  </si>
-  <si>
-    <t>A Definir</t>
   </si>
   <si>
     <t>Tipo de Pagamento</t>
@@ -641,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4DCB08-787A-4537-8E7E-48A08C3A3661}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,17 +942,6 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" t="s">
-        <v>63</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -972,13 +949,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A73A70-EFB8-42A5-8800-F5422BE9C99F}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A38" sqref="A38"/>
+      <selection pane="bottomRight" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,58 +1317,58 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>45966</v>
+        <v>45987</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C26">
-        <v>5.0229999999999998E-5</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>558232.13</v>
+        <v>43.94</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>45987</v>
+        <v>46000</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>43.94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>46000</v>
+        <v>46007</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>100</v>
+        <v>107.4</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>46000</v>
+        <v>46007</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C29">
-        <v>4.1699999999999997E-5</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>496642.68</v>
+        <v>20.420000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1399,41 +1376,41 @@
         <v>46007</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>107.4</v>
+        <v>11.69</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>46007</v>
+        <v>46027</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>20.420000000000002</v>
+        <v>14.22</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>46007</v>
+        <v>46027</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32">
-        <v>11.69</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1441,13 +1418,13 @@
         <v>46027</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33">
-        <v>14.22</v>
+        <v>11.69</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1455,63 +1432,17 @@
         <v>46027</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>11.25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>46027</v>
-      </c>
-      <c r="B35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>11.69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>46027</v>
-      </c>
-      <c r="B36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36">
-        <v>5.8709999999999999E-5</v>
-      </c>
-      <c r="D36">
-        <v>506898.31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>46027</v>
-      </c>
-      <c r="B37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37">
         <v>30.02</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D17" xr:uid="{61A73A70-EFB8-42A5-8800-F5422BE9C99F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D36">
-      <sortCondition ref="A1:A17"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:D34" xr:uid="{61A73A70-EFB8-42A5-8800-F5422BE9C99F}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -1520,11 +1451,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7E17A1-8817-4C43-A358-96590FEA9856}">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1545,10 +1476,10 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1557,7 +1488,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1567,11 +1498,8 @@
       <c r="B2" s="1">
         <v>46014</v>
       </c>
-      <c r="C2" t="s">
-        <v>64</v>
-      </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -1590,11 +1518,8 @@
       <c r="B3" s="1">
         <v>46014</v>
       </c>
-      <c r="C3" t="s">
-        <v>64</v>
-      </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1617,7 +1542,7 @@
         <v>46981</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1640,7 +1565,7 @@
         <v>46610</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1663,7 +1588,7 @@
         <v>46246</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -1686,7 +1611,7 @@
         <v>46142</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1709,7 +1634,7 @@
         <v>46101</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1732,7 +1657,7 @@
         <v>46101</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -1755,7 +1680,7 @@
         <v>46085</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1778,7 +1703,7 @@
         <v>46085</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1801,7 +1726,7 @@
         <v>46073</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1824,7 +1749,7 @@
         <v>46050</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1847,7 +1772,7 @@
         <v>46050</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1870,7 +1795,7 @@
         <v>46037</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E15">
         <v>6</v>
@@ -1893,7 +1818,7 @@
         <v>46037</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1916,7 +1841,7 @@
         <v>46036</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1939,7 +1864,7 @@
         <v>46030</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E18">
         <v>8</v>
@@ -1962,7 +1887,7 @@
         <v>46030</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E19">
         <v>8</v>
@@ -1985,7 +1910,7 @@
         <v>46029</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -2008,7 +1933,7 @@
         <v>46024</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -2031,7 +1956,7 @@
         <v>46021</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -2054,7 +1979,7 @@
         <v>46021</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -2077,7 +2002,7 @@
         <v>46014</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2100,7 +2025,7 @@
         <v>46013</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -2123,7 +2048,7 @@
         <v>46010</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -2146,7 +2071,7 @@
         <v>46008</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E27">
         <v>7</v>
@@ -2169,7 +2094,7 @@
         <v>46008</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -2192,7 +2117,7 @@
         <v>46003</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>6</v>
@@ -2215,7 +2140,7 @@
         <v>46003</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2238,7 +2163,7 @@
         <v>46003</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -2261,7 +2186,7 @@
         <v>46003</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2284,7 +2209,7 @@
         <v>46003</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -2307,7 +2232,7 @@
         <v>46003</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -2330,7 +2255,7 @@
         <v>46002</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2353,7 +2278,7 @@
         <v>46002</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -2376,7 +2301,7 @@
         <v>45996</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E37">
         <v>8</v>
@@ -2399,7 +2324,7 @@
         <v>45996</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E38">
         <v>8</v>
@@ -2422,7 +2347,7 @@
         <v>45986</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -2445,7 +2370,7 @@
         <v>45980</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E40">
         <v>7</v>
@@ -2468,7 +2393,7 @@
         <v>45980</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -2491,7 +2416,7 @@
         <v>45975</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E42">
         <v>6</v>
@@ -2514,7 +2439,7 @@
         <v>45975</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2537,7 +2462,7 @@
         <v>45975</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2560,7 +2485,7 @@
         <v>45974</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2583,7 +2508,7 @@
         <v>45968</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E46">
         <v>8</v>
@@ -2606,7 +2531,7 @@
         <v>45968</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E47">
         <v>8</v>
@@ -2629,7 +2554,7 @@
         <v>45952</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -2652,7 +2577,7 @@
         <v>45947</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E49">
         <v>7</v>
@@ -2675,7 +2600,7 @@
         <v>45947</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -2698,7 +2623,7 @@
         <v>45944</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E51">
         <v>6</v>
@@ -2721,7 +2646,7 @@
         <v>45944</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2744,7 +2669,7 @@
         <v>45937</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E53">
         <v>6</v>
@@ -2767,7 +2692,7 @@
         <v>45937</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E54">
         <v>8</v>
@@ -2790,7 +2715,7 @@
         <v>45917</v>
       </c>
       <c r="D55" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E55">
         <v>6</v>
@@ -2813,7 +2738,7 @@
         <v>45912</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E56">
         <v>6</v>
@@ -2836,7 +2761,7 @@
         <v>45905</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E57">
         <v>6</v>
@@ -2859,7 +2784,7 @@
         <v>45905</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E58">
         <v>6</v>

--- a/Carteira.xlsx
+++ b/Carteira.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Douglas Malvares\Box\INVEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2E4444-CA7A-47B1-952D-A93179BB38A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2661C017-1098-4811-B8E4-3A64E2CA2743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="881" xr2:uid="{A7CB2594-04AB-403C-897F-43306B7CB2E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="881" activeTab="1" xr2:uid="{A7CB2594-04AB-403C-897F-43306B7CB2E0}"/>
   </bookViews>
   <sheets>
     <sheet name="PAPEIS" sheetId="4" r:id="rId1"/>
@@ -20,6 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LANÇAMENTOS!$A$1:$D$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PROVENTOS!$A$1:$G$58</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="66">
   <si>
     <t>Data da Compra</t>
   </si>
@@ -631,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4DCB08-787A-4537-8E7E-48A08C3A3661}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,13 +950,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A73A70-EFB8-42A5-8800-F5422BE9C99F}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J33" sqref="J33"/>
+      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,6 +1442,20 @@
         <v>30.02</v>
       </c>
     </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D34" xr:uid="{61A73A70-EFB8-42A5-8800-F5422BE9C99F}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1449,13 +1464,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7E17A1-8817-4C43-A358-96590FEA9856}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,9 +1481,11 @@
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1491,47 +1508,53 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1">
-        <v>46014</v>
-      </c>
-      <c r="D2" t="s">
-        <v>62</v>
+        <v>46010</v>
+      </c>
+      <c r="C2" s="1">
+        <v>46981</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2" s="5">
-        <v>0.24</v>
+        <v>0.83</v>
       </c>
       <c r="G2" s="5">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1">
-        <v>46014</v>
-      </c>
-      <c r="D3" t="s">
-        <v>62</v>
+        <v>46010</v>
+      </c>
+      <c r="C3" s="1">
+        <v>46610</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" s="5">
-        <v>0.24</v>
+        <v>0.83</v>
       </c>
       <c r="G3" s="5">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1539,7 +1562,7 @@
         <v>46010</v>
       </c>
       <c r="C4" s="1">
-        <v>46981</v>
+        <v>46246</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>63</v>
@@ -1554,38 +1577,40 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1">
-        <v>46010</v>
+        <v>46000</v>
       </c>
       <c r="C5" s="1">
-        <v>46610</v>
+        <v>46142</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" s="5">
-        <v>0.83</v>
+        <v>0.04</v>
       </c>
       <c r="G5" s="5">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.03</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1">
-        <v>46010</v>
+        <v>46013</v>
       </c>
       <c r="C6" s="1">
-        <v>46246</v>
+        <v>46101</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>63</v>
@@ -1594,21 +1619,22 @@
         <v>2</v>
       </c>
       <c r="F6" s="5">
-        <v>0.83</v>
+        <v>0.59</v>
       </c>
       <c r="G6" s="5">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.59</v>
+      </c>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1">
-        <v>46000</v>
+        <v>46013</v>
       </c>
       <c r="C7" s="1">
-        <v>46142</v>
+        <v>46101</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>62</v>
@@ -1617,21 +1643,21 @@
         <v>2</v>
       </c>
       <c r="F7" s="5">
-        <v>0.04</v>
+        <v>0.35</v>
       </c>
       <c r="G7" s="5">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1">
-        <v>46013</v>
+        <v>46002</v>
       </c>
       <c r="C8" s="1">
-        <v>46101</v>
+        <v>46085</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>63</v>
@@ -1640,21 +1666,21 @@
         <v>2</v>
       </c>
       <c r="F8" s="5">
-        <v>0.59</v>
+        <v>1.54</v>
       </c>
       <c r="G8" s="5">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1">
-        <v>46013</v>
+        <v>46002</v>
       </c>
       <c r="C9" s="1">
-        <v>46101</v>
+        <v>46085</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>62</v>
@@ -1663,67 +1689,67 @@
         <v>2</v>
       </c>
       <c r="F9" s="5">
+        <v>3.14</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="1">
+        <v>46013</v>
+      </c>
+      <c r="C10" s="1">
+        <v>46073</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45975</v>
+      </c>
+      <c r="C11" s="1">
+        <v>46050</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="5">
         <v>0.35</v>
       </c>
-      <c r="G9" s="5">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="1">
-        <v>46002</v>
-      </c>
-      <c r="C10" s="1">
-        <v>46085</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1.54</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="1">
-        <v>46002</v>
-      </c>
-      <c r="C11" s="1">
-        <v>46085</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" s="5">
-        <v>3.14</v>
-      </c>
       <c r="G11" s="5">
-        <v>2.67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1">
-        <v>46013</v>
+        <v>45975</v>
       </c>
       <c r="C12" s="1">
-        <v>46073</v>
+        <v>46050</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>62</v>
@@ -1732,182 +1758,182 @@
         <v>2</v>
       </c>
       <c r="F12" s="5">
-        <v>0.94</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G12" s="5">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>45975</v>
+        <v>46021</v>
       </c>
       <c r="C13" s="1">
-        <v>46050</v>
+        <v>46037</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F13" s="5">
-        <v>0.35</v>
+        <v>0.6</v>
       </c>
       <c r="G13" s="5">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1">
-        <v>45975</v>
+        <v>46021</v>
       </c>
       <c r="C14" s="1">
-        <v>46050</v>
+        <v>46037</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14" s="5">
-        <v>0.28000000000000003</v>
+        <v>2</v>
       </c>
       <c r="G14" s="5">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1">
         <v>46021</v>
       </c>
       <c r="C15" s="1">
-        <v>46037</v>
+        <v>46036</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F15" s="5">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="G15" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1">
         <v>46021</v>
       </c>
       <c r="C16" s="1">
-        <v>46037</v>
+        <v>46030</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F16" s="5">
-        <v>2</v>
+        <v>0.66</v>
       </c>
       <c r="G16" s="5">
-        <v>2</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1">
         <v>46021</v>
       </c>
       <c r="C17" s="1">
-        <v>46036</v>
+        <v>46030</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F17" s="5">
-        <v>1.3</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G17" s="5">
-        <v>1.3</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B18" s="1">
-        <v>46021</v>
+        <v>46002</v>
       </c>
       <c r="C18" s="1">
-        <v>46030</v>
+        <v>46029</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E18">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F18" s="5">
-        <v>0.66</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="G18" s="5">
-        <v>0.66</v>
+        <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1">
-        <v>46021</v>
+        <v>45989</v>
       </c>
       <c r="C19" s="1">
-        <v>46030</v>
+        <v>46024</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F19" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.05</v>
       </c>
       <c r="G19" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B20" s="1">
-        <v>46002</v>
+        <v>46013</v>
       </c>
       <c r="C20" s="1">
-        <v>46029</v>
+        <v>46021</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>63</v>
@@ -1916,68 +1942,68 @@
         <v>2</v>
       </c>
       <c r="F20" s="5">
-        <v>2.4900000000000002</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G20" s="5">
-        <v>2.4900000000000002</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1">
-        <v>45989</v>
+        <v>46013</v>
       </c>
       <c r="C21" s="1">
-        <v>46024</v>
+        <v>46021</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21" s="5">
-        <v>0.05</v>
+        <v>1.3</v>
       </c>
       <c r="G21" s="5">
-        <v>0.04</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1">
-        <v>46013</v>
+        <v>46007</v>
       </c>
       <c r="C22" s="1">
-        <v>46021</v>
+        <v>46014</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.92</v>
       </c>
       <c r="G22" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B23" s="1">
+        <v>46006</v>
+      </c>
+      <c r="C23" s="1">
         <v>46013</v>
       </c>
-      <c r="C23" s="1">
-        <v>46021</v>
-      </c>
       <c r="D23" s="1" t="s">
         <v>63</v>
       </c>
@@ -1985,67 +2011,67 @@
         <v>2</v>
       </c>
       <c r="F23" s="5">
-        <v>1.3</v>
+        <v>0.22</v>
       </c>
       <c r="G23" s="5">
-        <v>1.3</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B24" s="1">
-        <v>46007</v>
+        <v>46000</v>
       </c>
       <c r="C24" s="1">
-        <v>46014</v>
+        <v>46010</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="5">
-        <v>0.92</v>
+        <v>1.55</v>
       </c>
       <c r="G24" s="5">
-        <v>0.92</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25" s="1">
-        <v>46006</v>
+        <v>46001</v>
       </c>
       <c r="C25" s="1">
-        <v>46013</v>
+        <v>46008</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F25" s="5">
-        <v>0.22</v>
+        <v>0.63</v>
       </c>
       <c r="G25" s="5">
-        <v>0.22</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B26" s="1">
-        <v>46000</v>
+        <v>46001</v>
       </c>
       <c r="C26" s="1">
-        <v>46010</v>
+        <v>46008</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>63</v>
@@ -2054,87 +2080,87 @@
         <v>2</v>
       </c>
       <c r="F26" s="5">
-        <v>1.55</v>
+        <v>0.26</v>
       </c>
       <c r="G26" s="5">
-        <v>1.55</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B27" s="1">
-        <v>46001</v>
+        <v>45989</v>
       </c>
       <c r="C27" s="1">
-        <v>46008</v>
+        <v>46003</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27" s="5">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="G27" s="5">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B28" s="1">
-        <v>46001</v>
+        <v>45989</v>
       </c>
       <c r="C28" s="1">
-        <v>46008</v>
+        <v>46003</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" s="5">
-        <v>0.26</v>
+        <v>0.93</v>
       </c>
       <c r="G28" s="5">
-        <v>0.26</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B29" s="1">
-        <v>45989</v>
+        <v>45993</v>
       </c>
       <c r="C29" s="1">
         <v>46003</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F29" s="5">
-        <v>0.6</v>
+        <v>0.09</v>
       </c>
       <c r="G29" s="5">
-        <v>0.6</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B30" s="1">
-        <v>45989</v>
+        <v>45996</v>
       </c>
       <c r="C30" s="1">
         <v>46003</v>
@@ -2146,90 +2172,90 @@
         <v>1</v>
       </c>
       <c r="F30" s="5">
-        <v>0.93</v>
+        <v>0.82</v>
       </c>
       <c r="G30" s="5">
-        <v>0.93</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B31" s="1">
-        <v>45993</v>
+        <v>45994</v>
       </c>
       <c r="C31" s="1">
         <v>46003</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E31">
         <v>2</v>
       </c>
       <c r="F31" s="5">
-        <v>0.09</v>
+        <v>0.68</v>
       </c>
       <c r="G31" s="5">
-        <v>0.08</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32" s="1">
-        <v>45996</v>
+        <v>45994</v>
       </c>
       <c r="C32" s="1">
         <v>46003</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" s="5">
-        <v>0.82</v>
+        <v>0.22</v>
       </c>
       <c r="G32" s="5">
-        <v>0.82</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B33" s="1">
-        <v>45994</v>
+        <v>45989</v>
       </c>
       <c r="C33" s="1">
-        <v>46003</v>
+        <v>46002</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="5">
-        <v>0.68</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G33" s="5">
-        <v>0.68</v>
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B34" s="1">
-        <v>45994</v>
+        <v>45992</v>
       </c>
       <c r="C34" s="1">
-        <v>46003</v>
+        <v>46002</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>62</v>
@@ -2238,113 +2264,113 @@
         <v>2</v>
       </c>
       <c r="F34" s="5">
-        <v>0.22</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G34" s="5">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B35" s="1">
         <v>45989</v>
       </c>
       <c r="C35" s="1">
-        <v>46002</v>
+        <v>45996</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F35" s="5">
-        <v>1.1100000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="G35" s="5">
-        <v>1.1100000000000001</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B36" s="1">
-        <v>45992</v>
+        <v>45989</v>
       </c>
       <c r="C36" s="1">
-        <v>46002</v>
+        <v>45996</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F36" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G36" s="5">
-        <v>0.12</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B37" s="1">
-        <v>45989</v>
+        <v>45978</v>
       </c>
       <c r="C37" s="1">
-        <v>45996</v>
+        <v>45986</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E37">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F37" s="5">
-        <v>0.66</v>
+        <v>0.22</v>
       </c>
       <c r="G37" s="5">
-        <v>0.66</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B38" s="1">
-        <v>45989</v>
+        <v>45973</v>
       </c>
       <c r="C38" s="1">
-        <v>45996</v>
+        <v>45980</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F38" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.63</v>
       </c>
       <c r="G38" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B39" s="1">
-        <v>45978</v>
+        <v>45973</v>
       </c>
       <c r="C39" s="1">
-        <v>45986</v>
+        <v>45980</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>63</v>
@@ -2353,64 +2379,64 @@
         <v>2</v>
       </c>
       <c r="F39" s="5">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="G39" s="5">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B40" s="1">
-        <v>45973</v>
+        <v>45961</v>
       </c>
       <c r="C40" s="1">
-        <v>45980</v>
+        <v>45975</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E40">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F40" s="5">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="G40" s="5">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B41" s="1">
-        <v>45973</v>
+        <v>45961</v>
       </c>
       <c r="C41" s="1">
-        <v>45980</v>
+        <v>45975</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" s="5">
-        <v>0.26</v>
+        <v>0.93</v>
       </c>
       <c r="G41" s="5">
-        <v>0.26</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B42" s="1">
-        <v>45961</v>
+        <v>45968</v>
       </c>
       <c r="C42" s="1">
         <v>45975</v>
@@ -2419,24 +2445,24 @@
         <v>63</v>
       </c>
       <c r="E42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F42" s="5">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G42" s="5">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B43" s="1">
         <v>45961</v>
       </c>
       <c r="C43" s="1">
-        <v>45975</v>
+        <v>45974</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>63</v>
@@ -2445,113 +2471,113 @@
         <v>1</v>
       </c>
       <c r="F43" s="5">
-        <v>0.93</v>
+        <v>1.33</v>
       </c>
       <c r="G43" s="5">
-        <v>0.93</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B44" s="1">
+        <v>45961</v>
+      </c>
+      <c r="C44" s="1">
         <v>45968</v>
       </c>
-      <c r="C44" s="1">
-        <v>45975</v>
-      </c>
       <c r="D44" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F44" s="5">
-        <v>0.8</v>
+        <v>0.66</v>
       </c>
       <c r="G44" s="5">
-        <v>0.8</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B45" s="1">
         <v>45961</v>
       </c>
       <c r="C45" s="1">
-        <v>45974</v>
+        <v>45968</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F45" s="5">
-        <v>1.33</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G45" s="5">
-        <v>1.33</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B46" s="1">
-        <v>45961</v>
+        <v>45945</v>
       </c>
       <c r="C46" s="1">
-        <v>45968</v>
+        <v>45952</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E46">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F46" s="5">
-        <v>0.66</v>
+        <v>0.22</v>
       </c>
       <c r="G46" s="5">
-        <v>0.66</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B47" s="1">
-        <v>45961</v>
+        <v>45940</v>
       </c>
       <c r="C47" s="1">
-        <v>45968</v>
+        <v>45947</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E47">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F47" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.63</v>
       </c>
       <c r="G47" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B48" s="1">
-        <v>45945</v>
+        <v>45940</v>
       </c>
       <c r="C48" s="1">
-        <v>45952</v>
+        <v>45947</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>63</v>
@@ -2560,67 +2586,67 @@
         <v>2</v>
       </c>
       <c r="F48" s="5">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="G48" s="5">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B49" s="1">
-        <v>45940</v>
+        <v>45930</v>
       </c>
       <c r="C49" s="1">
-        <v>45947</v>
+        <v>45944</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F49" s="5">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="G49" s="5">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B50" s="1">
-        <v>45940</v>
+        <v>45930</v>
       </c>
       <c r="C50" s="1">
-        <v>45947</v>
+        <v>45944</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" s="5">
-        <v>0.26</v>
+        <v>0.93</v>
       </c>
       <c r="G50" s="5">
-        <v>0.26</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B51" s="1">
         <v>45930</v>
       </c>
       <c r="C51" s="1">
-        <v>45944</v>
+        <v>45937</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>63</v>
@@ -2629,113 +2655,113 @@
         <v>6</v>
       </c>
       <c r="F51" s="5">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="G51" s="5">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B52" s="1">
         <v>45930</v>
       </c>
       <c r="C52" s="1">
-        <v>45944</v>
+        <v>45937</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F52" s="5">
-        <v>0.93</v>
+        <v>0.64</v>
       </c>
       <c r="G52" s="5">
-        <v>0.93</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B53" s="1">
-        <v>45930</v>
+        <v>45910</v>
       </c>
       <c r="C53" s="1">
-        <v>45937</v>
-      </c>
-      <c r="D53" s="1" t="s">
+        <v>45917</v>
+      </c>
+      <c r="D53" t="s">
         <v>63</v>
       </c>
       <c r="E53">
         <v>6</v>
       </c>
       <c r="F53" s="5">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="G53" s="5">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B54" s="1">
-        <v>45930</v>
+        <v>45898</v>
       </c>
       <c r="C54" s="1">
-        <v>45937</v>
+        <v>45912</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E54">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F54" s="5">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="G54" s="5">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B55" s="1">
-        <v>45910</v>
+        <v>45898</v>
       </c>
       <c r="C55" s="1">
-        <v>45917</v>
-      </c>
-      <c r="D55" t="s">
+        <v>45905</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E55">
         <v>6</v>
       </c>
       <c r="F55" s="5">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="G55" s="5">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B56" s="1">
         <v>45898</v>
       </c>
       <c r="C56" s="1">
-        <v>45912</v>
+        <v>45905</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>63</v>
@@ -2744,59 +2770,58 @@
         <v>6</v>
       </c>
       <c r="F56" s="5">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="G56" s="5">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B57" s="1">
-        <v>45898</v>
-      </c>
-      <c r="C57" s="1">
-        <v>45905</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>63</v>
+        <v>46014</v>
+      </c>
+      <c r="D57" t="s">
+        <v>62</v>
       </c>
       <c r="E57">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F57" s="5">
-        <v>0.5</v>
+        <v>0.24</v>
       </c>
       <c r="G57" s="5">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B58" s="1">
-        <v>45898</v>
-      </c>
-      <c r="C58" s="1">
-        <v>45905</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>63</v>
+        <v>46014</v>
+      </c>
+      <c r="D58" t="s">
+        <v>62</v>
       </c>
       <c r="E58">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F58" s="5">
-        <v>0.54</v>
+        <v>0.24</v>
       </c>
       <c r="G58" s="5">
-        <v>0.54</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G58" xr:uid="{DE7E17A1-8817-4C43-A358-96590FEA9856}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G58">
+      <sortCondition descending="1" ref="C1:C58"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/Carteira.xlsx
+++ b/Carteira.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Douglas Malvares\Box\INVEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2661C017-1098-4811-B8E4-3A64E2CA2743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701363D7-C2D3-49E8-A9D8-2A6CE251B44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="881" activeTab="1" xr2:uid="{A7CB2594-04AB-403C-897F-43306B7CB2E0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="881" activeTab="3" xr2:uid="{A7CB2594-04AB-403C-897F-43306B7CB2E0}"/>
   </bookViews>
   <sheets>
     <sheet name="PAPEIS" sheetId="4" r:id="rId1"/>
-    <sheet name="LANÇAMENTOS" sheetId="1" r:id="rId2"/>
-    <sheet name="PROVENTOS" sheetId="2" r:id="rId3"/>
-    <sheet name="INDICES" sheetId="3" r:id="rId4"/>
+    <sheet name="FECHAMENTOS" sheetId="5" r:id="rId2"/>
+    <sheet name="LANÇAMENTOS" sheetId="1" r:id="rId3"/>
+    <sheet name="PROVENTOS" sheetId="2" r:id="rId4"/>
+    <sheet name="INDICES" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LANÇAMENTOS!$A$1:$D$34</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PROVENTOS!$A$1:$G$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">LANÇAMENTOS!$A$1:$D$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PROVENTOS!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="70">
   <si>
     <t>Data da Compra</t>
   </si>
@@ -241,6 +242,18 @@
   </si>
   <si>
     <t>Data de Pagamento</t>
+  </si>
+  <si>
+    <t>Data Inicial</t>
+  </si>
+  <si>
+    <t>Fechamento</t>
+  </si>
+  <si>
+    <t>Valor Fechamento</t>
+  </si>
+  <si>
+    <t>Mês/ANO</t>
   </si>
 </sst>
 </file>
@@ -250,7 +263,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +274,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -630,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4DCB08-787A-4537-8E7E-48A08C3A3661}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
+      <selection activeCell="F1" sqref="F1:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,9 +661,10 @@
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -660,8 +680,11 @@
       <c r="E1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -677,8 +700,11 @@
       <c r="E2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="2">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -694,8 +720,11 @@
       <c r="E3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="2">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -711,8 +740,11 @@
       <c r="E4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="2">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -728,8 +760,11 @@
       <c r="E5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="2">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -745,8 +780,11 @@
       <c r="E6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="2">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -762,8 +800,11 @@
       <c r="E7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="2">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -779,8 +820,11 @@
       <c r="E8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="2">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -796,8 +840,11 @@
       <c r="E9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="2">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -813,8 +860,11 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="2">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -830,8 +880,11 @@
       <c r="E11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="2">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -844,8 +897,11 @@
       <c r="D12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="2">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -858,8 +914,11 @@
       <c r="D13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="2">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -872,8 +931,11 @@
       <c r="D14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="2">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -886,8 +948,11 @@
       <c r="D15" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="2">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -900,8 +965,11 @@
       <c r="D16" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" s="2">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -914,8 +982,11 @@
       <c r="D17" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" s="2">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -928,8 +999,11 @@
       <c r="D18" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18" s="2">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -941,6 +1015,9 @@
       </c>
       <c r="D19" t="s">
         <v>57</v>
+      </c>
+      <c r="F19" s="2">
+        <v>45931</v>
       </c>
     </row>
   </sheetData>
@@ -949,14 +1026,662 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974C78EB-F485-4560-AB0A-08A5AC33F34C}">
+  <dimension ref="A1:C57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C2">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45961</v>
+      </c>
+      <c r="C3">
+        <v>7.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45991</v>
+      </c>
+      <c r="C4">
+        <v>7.43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C5">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45900</v>
+      </c>
+      <c r="C6">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C7">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45961</v>
+      </c>
+      <c r="C8">
+        <v>8.81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45991</v>
+      </c>
+      <c r="C9">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C10">
+        <v>9.06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45961</v>
+      </c>
+      <c r="C11">
+        <v>102.64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45991</v>
+      </c>
+      <c r="C12">
+        <v>105.36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C13">
+        <v>107.51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C14">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45961</v>
+      </c>
+      <c r="C15">
+        <v>8.56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45991</v>
+      </c>
+      <c r="C16">
+        <v>8.64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C17">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45900</v>
+      </c>
+      <c r="C18">
+        <v>9.23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C19">
+        <v>9.3699999999999992</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45961</v>
+      </c>
+      <c r="C20">
+        <v>9.3699999999999992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45991</v>
+      </c>
+      <c r="C21">
+        <v>9.5299999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C22">
+        <v>9.5399999999999991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C23">
+        <v>94.96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45961</v>
+      </c>
+      <c r="C24">
+        <v>98.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45991</v>
+      </c>
+      <c r="C25">
+        <v>100.61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C26">
+        <v>97.97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45900</v>
+      </c>
+      <c r="C27">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C28">
+        <v>7.53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45961</v>
+      </c>
+      <c r="C29">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45991</v>
+      </c>
+      <c r="C30">
+        <v>7.01</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C31">
+        <v>7.23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45961</v>
+      </c>
+      <c r="C32">
+        <v>9.19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45991</v>
+      </c>
+      <c r="C33">
+        <v>9.33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C34">
+        <v>9.83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C35">
+        <v>108.06</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45991</v>
+      </c>
+      <c r="C36">
+        <v>79.489999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C37">
+        <v>81.99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1">
+        <v>45991</v>
+      </c>
+      <c r="C38">
+        <v>64.38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C39">
+        <v>71.959999999999994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>45991</v>
+      </c>
+      <c r="C40">
+        <v>42.78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C41">
+        <v>48.51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <v>45961</v>
+      </c>
+      <c r="C42">
+        <v>29.68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="1">
+        <v>45991</v>
+      </c>
+      <c r="C43">
+        <v>31.78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C44">
+        <v>30.82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="1">
+        <v>45961</v>
+      </c>
+      <c r="C45">
+        <v>10.86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45991</v>
+      </c>
+      <c r="C46">
+        <v>11.57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C47">
+        <v>11.68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="1">
+        <v>45961</v>
+      </c>
+      <c r="C48">
+        <v>21.86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="1">
+        <v>45991</v>
+      </c>
+      <c r="C49">
+        <v>22.46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C50">
+        <v>21.92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="1">
+        <v>45961</v>
+      </c>
+      <c r="C51">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="1">
+        <v>45991</v>
+      </c>
+      <c r="C52">
+        <v>14.51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C53">
+        <v>14.08</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C54">
+        <v>20.05</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" s="1">
+        <v>45961</v>
+      </c>
+      <c r="C55">
+        <v>11.32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="1">
+        <v>45991</v>
+      </c>
+      <c r="C56">
+        <v>11.51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C57">
+        <v>11.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A73A70-EFB8-42A5-8800-F5422BE9C99F}">
-  <dimension ref="A1:D35"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,7 +1691,7 @@
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -980,7 +1705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45880</v>
       </c>
@@ -993,8 +1718,12 @@
       <c r="D2">
         <v>9.09</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>C2*D2</f>
+        <v>45.45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45880</v>
       </c>
@@ -1008,7 +1737,7 @@
         <v>9.43</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45880</v>
       </c>
@@ -1022,7 +1751,7 @@
         <v>7.59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45888</v>
       </c>
@@ -1036,7 +1765,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45888</v>
       </c>
@@ -1050,7 +1779,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45888</v>
       </c>
@@ -1064,7 +1793,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45898</v>
       </c>
@@ -1078,7 +1807,7 @@
         <v>7.72</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45908</v>
       </c>
@@ -1092,7 +1821,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45908</v>
       </c>
@@ -1106,7 +1835,7 @@
         <v>97.1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45908</v>
       </c>
@@ -1120,7 +1849,7 @@
         <v>7.64</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45910</v>
       </c>
@@ -1134,7 +1863,7 @@
         <v>7.44</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45926</v>
       </c>
@@ -1148,7 +1877,7 @@
         <v>8.86</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45937</v>
       </c>
@@ -1162,7 +1891,7 @@
         <v>104.08</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45937</v>
       </c>
@@ -1176,7 +1905,7 @@
         <v>9.5399999999999991</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45937</v>
       </c>
@@ -1190,7 +1919,7 @@
         <v>7.66</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45940</v>
       </c>
@@ -1204,7 +1933,7 @@
         <v>8.85</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45957</v>
       </c>
@@ -1218,7 +1947,7 @@
         <v>30.08</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45957</v>
       </c>
@@ -1232,7 +1961,7 @@
         <v>10.84</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45957</v>
       </c>
@@ -1246,7 +1975,7 @@
         <v>11.38</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45957</v>
       </c>
@@ -1260,7 +1989,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45957</v>
       </c>
@@ -1274,7 +2003,7 @@
         <v>12.43</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45957</v>
       </c>
@@ -1288,7 +2017,7 @@
         <v>8.94</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45966</v>
       </c>
@@ -1302,7 +2031,7 @@
         <v>65.459999999999994</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45966</v>
       </c>
@@ -1316,7 +2045,7 @@
         <v>78.569999999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45987</v>
       </c>
@@ -1330,7 +2059,7 @@
         <v>43.94</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>46000</v>
       </c>
@@ -1344,7 +2073,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>46007</v>
       </c>
@@ -1358,7 +2087,7 @@
         <v>107.4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>46007</v>
       </c>
@@ -1372,7 +2101,7 @@
         <v>20.420000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>46007</v>
       </c>
@@ -1386,7 +2115,7 @@
         <v>11.69</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>46027</v>
       </c>
@@ -1400,7 +2129,7 @@
         <v>14.22</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>46027</v>
       </c>
@@ -1414,7 +2143,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>46027</v>
       </c>
@@ -1428,7 +2157,7 @@
         <v>11.69</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>46027</v>
       </c>
@@ -1442,7 +2171,7 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>46029</v>
       </c>
@@ -1457,1385 +2186,1573 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D34" xr:uid="{61A73A70-EFB8-42A5-8800-F5422BE9C99F}"/>
+  <autoFilter ref="A1:D35" xr:uid="{61A73A70-EFB8-42A5-8800-F5422BE9C99F}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="VGIR11"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7E17A1-8817-4C43-A358-96590FEA9856}">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18:XFD18"/>
+      <selection pane="bottomRight" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="1">
-        <v>46010</v>
+        <v>11</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45992</v>
       </c>
       <c r="C2" s="1">
-        <v>46981</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0.83</v>
+        <v>46021</v>
+      </c>
+      <c r="D2" s="1">
+        <v>46037</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
       </c>
       <c r="G2" s="5">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="1">
-        <v>46010</v>
+        <v>9</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45992</v>
       </c>
       <c r="C3" s="1">
-        <v>46610</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.83</v>
+        <v>46021</v>
+      </c>
+      <c r="D3" s="1">
+        <v>46037</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
       </c>
       <c r="G3" s="5">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="1">
-        <v>46010</v>
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45992</v>
       </c>
       <c r="C4" s="1">
-        <v>46246</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0.83</v>
+        <v>46021</v>
+      </c>
+      <c r="D4" s="1">
+        <v>46036</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
       </c>
       <c r="G4" s="5">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.3</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="1">
-        <v>46000</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45992</v>
       </c>
       <c r="C5" s="1">
-        <v>46142</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>46021</v>
+      </c>
+      <c r="D5" s="1">
+        <v>46030</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C6" s="1">
+        <v>46021</v>
+      </c>
+      <c r="D6" s="1">
+        <v>46030</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C7" s="1">
+        <v>46014</v>
+      </c>
+      <c r="E7" t="s">
         <v>62</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C8" s="1">
+        <v>46014</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B9" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C9" s="1">
         <v>46013</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D9" s="1">
         <v>46101</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="E9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5">
         <v>0.59</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H9" s="5">
         <v>0.59</v>
       </c>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="1">
-        <v>46013</v>
-      </c>
-      <c r="C7" s="1">
-        <v>46101</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.35</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="1">
-        <v>46002</v>
-      </c>
-      <c r="C8" s="1">
-        <v>46085</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1.54</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="1">
-        <v>46002</v>
-      </c>
-      <c r="C9" s="1">
-        <v>46085</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" s="5">
-        <v>3.14</v>
-      </c>
-      <c r="G9" s="5">
-        <v>2.67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C10" s="1">
         <v>46013</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
+        <v>46101</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C11" s="1">
+        <v>46013</v>
+      </c>
+      <c r="D11" s="1">
         <v>46073</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" s="5">
         <v>0.94</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H11" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="1">
-        <v>45975</v>
-      </c>
-      <c r="C11" s="1">
-        <v>46050</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0.35</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="1">
-        <v>45975</v>
+        <v>45</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45992</v>
       </c>
       <c r="C12" s="1">
-        <v>46050</v>
-      </c>
-      <c r="D12" s="1" t="s">
+        <v>46013</v>
+      </c>
+      <c r="D12" s="1">
+        <v>46021</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C13" s="1">
+        <v>46013</v>
+      </c>
+      <c r="D13" s="1">
+        <v>46021</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C14" s="1">
+        <v>46010</v>
+      </c>
+      <c r="D14" s="1">
+        <v>46981</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C15" s="1">
+        <v>46010</v>
+      </c>
+      <c r="D15" s="1">
+        <v>46610</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C16" s="1">
+        <v>46010</v>
+      </c>
+      <c r="D16" s="1">
+        <v>46246</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C17" s="1">
+        <v>46007</v>
+      </c>
+      <c r="D17" s="1">
+        <v>46014</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C18" s="1">
+        <v>46006</v>
+      </c>
+      <c r="D18" s="1">
+        <v>46013</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C19" s="1">
+        <v>46002</v>
+      </c>
+      <c r="D19" s="1">
+        <v>46085</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1.54</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C20" s="1">
+        <v>46002</v>
+      </c>
+      <c r="D20" s="1">
+        <v>46085</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>46021</v>
-      </c>
-      <c r="C13" s="1">
-        <v>46037</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13">
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" s="5">
+        <v>3.14</v>
+      </c>
+      <c r="H20" s="5">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C21" s="1">
+        <v>46002</v>
+      </c>
+      <c r="D21" s="1">
+        <v>46029</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" s="5">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H21" s="5">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C22" s="1">
+        <v>46001</v>
+      </c>
+      <c r="D22" s="1">
+        <v>46008</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22">
+        <v>7</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1">
-        <v>46021</v>
-      </c>
-      <c r="C14" s="1">
-        <v>46037</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14" s="5">
-        <v>2</v>
-      </c>
-      <c r="G14" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="1">
-        <v>46021</v>
-      </c>
-      <c r="C15" s="1">
-        <v>46036</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="G15" s="5">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="1">
-        <v>46021</v>
-      </c>
-      <c r="C16" s="1">
-        <v>46030</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16">
-        <v>8</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="1">
-        <v>46021</v>
-      </c>
-      <c r="C17" s="1">
-        <v>46030</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17">
-        <v>8</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="1">
-        <v>46002</v>
-      </c>
-      <c r="C18" s="1">
-        <v>46029</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18" s="5">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="G18" s="5">
-        <v>2.4900000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="1">
-        <v>45989</v>
-      </c>
-      <c r="C19" s="1">
-        <v>46024</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="1">
-        <v>46013</v>
-      </c>
-      <c r="C20" s="1">
-        <v>46021</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G20" s="5">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="1">
-        <v>46013</v>
-      </c>
-      <c r="C21" s="1">
-        <v>46021</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="G21" s="5">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="1">
-        <v>46007</v>
-      </c>
-      <c r="C22" s="1">
-        <v>46014</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="G22" s="5">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1">
-        <v>46006</v>
+      <c r="B23" s="2">
+        <v>45992</v>
       </c>
       <c r="C23" s="1">
-        <v>46013</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23" s="5">
-        <v>0.22</v>
+        <v>46001</v>
+      </c>
+      <c r="D23" s="1">
+        <v>46008</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
       </c>
       <c r="G23" s="5">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.26</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C24" s="1">
         <v>46000</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D24" s="1">
+        <v>46142</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C25" s="1">
+        <v>46000</v>
+      </c>
+      <c r="D25" s="1">
         <v>46010</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24" s="5">
+      <c r="E25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" s="5">
         <v>1.55</v>
       </c>
-      <c r="G24" s="5">
+      <c r="H25" s="5">
         <v>1.55</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="1">
-        <v>46001</v>
-      </c>
-      <c r="C25" s="1">
-        <v>46008</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25">
-        <v>7</v>
-      </c>
-      <c r="F25" s="5">
-        <v>0.63</v>
-      </c>
-      <c r="G25" s="5">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="1">
-        <v>46001</v>
+        <v>36</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45992</v>
       </c>
       <c r="C26" s="1">
-        <v>46008</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26" s="5">
-        <v>0.26</v>
+        <v>45996</v>
+      </c>
+      <c r="D26" s="1">
+        <v>46003</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
       </c>
       <c r="G26" s="5">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.82</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="1">
-        <v>45989</v>
+        <v>39</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45992</v>
       </c>
       <c r="C27" s="1">
+        <v>45994</v>
+      </c>
+      <c r="D27" s="1">
         <v>46003</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27">
-        <v>6</v>
-      </c>
-      <c r="F27" s="5">
-        <v>0.6</v>
+      <c r="E27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
       </c>
       <c r="G27" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.68</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="1">
-        <v>45989</v>
+        <v>39</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45992</v>
       </c>
       <c r="C28" s="1">
+        <v>45994</v>
+      </c>
+      <c r="D28" s="1">
         <v>46003</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28" s="5">
-        <v>0.93</v>
+      <c r="E28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
       </c>
       <c r="G28" s="5">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.22</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C29" s="1">
         <v>45993</v>
       </c>
-      <c r="C29" s="1">
+      <c r="D29" s="1">
         <v>46003</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29" s="5">
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" s="5">
         <v>0.09</v>
       </c>
-      <c r="G29" s="5">
+      <c r="H29" s="5">
         <v>0.08</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="1">
-        <v>45996</v>
+        <v>42</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45992</v>
       </c>
       <c r="C30" s="1">
+        <v>45992</v>
+      </c>
+      <c r="D30" s="1">
+        <v>46002</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45962</v>
+      </c>
+      <c r="C31" s="1">
+        <v>45989</v>
+      </c>
+      <c r="D31" s="1">
+        <v>46024</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45962</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45989</v>
+      </c>
+      <c r="D32" s="1">
         <v>46003</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30">
+      <c r="E32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="2">
+        <v>45962</v>
+      </c>
+      <c r="C33" s="1">
+        <v>45989</v>
+      </c>
+      <c r="D33" s="1">
+        <v>46003</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33">
         <v>1</v>
       </c>
-      <c r="F30" s="5">
-        <v>0.82</v>
-      </c>
-      <c r="G30" s="5">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="1">
-        <v>45994</v>
-      </c>
-      <c r="C31" s="1">
-        <v>46003</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31" s="5">
-        <v>0.68</v>
-      </c>
-      <c r="G31" s="5">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="1">
-        <v>45994</v>
-      </c>
-      <c r="C32" s="1">
-        <v>46003</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32" s="5">
-        <v>0.22</v>
-      </c>
-      <c r="G32" s="5">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="G33" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B34" s="2">
+        <v>45962</v>
+      </c>
+      <c r="C34" s="1">
         <v>45989</v>
       </c>
-      <c r="C33" s="1">
+      <c r="D34" s="1">
         <v>46002</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33">
+      <c r="E34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34">
         <v>1</v>
       </c>
-      <c r="F33" s="5">
+      <c r="G34" s="5">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G33" s="5">
+      <c r="H34" s="5">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="1">
-        <v>45992</v>
-      </c>
-      <c r="C34" s="1">
-        <v>46002</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G34" s="5">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="2">
+        <v>45962</v>
+      </c>
+      <c r="C35" s="1">
         <v>45989</v>
       </c>
-      <c r="C35" s="1">
+      <c r="D35" s="1">
         <v>45996</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35">
+      <c r="E35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35">
         <v>8</v>
-      </c>
-      <c r="F35" s="5">
-        <v>0.66</v>
       </c>
       <c r="G35" s="5">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="5">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
+        <v>45962</v>
+      </c>
+      <c r="C36" s="1">
         <v>45989</v>
       </c>
-      <c r="C36" s="1">
+      <c r="D36" s="1">
         <v>45996</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36">
+      <c r="E36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36">
         <v>8</v>
-      </c>
-      <c r="F36" s="5">
-        <v>0.56000000000000005</v>
       </c>
       <c r="G36" s="5">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="2">
+        <v>45962</v>
+      </c>
+      <c r="C37" s="1">
         <v>45978</v>
       </c>
-      <c r="C37" s="1">
+      <c r="D37" s="1">
         <v>45986</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37" s="5">
-        <v>0.22</v>
+      <c r="E37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
       </c>
       <c r="G37" s="5">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="5">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="2">
+        <v>45962</v>
+      </c>
+      <c r="C38" s="1">
+        <v>45975</v>
+      </c>
+      <c r="D38" s="1">
+        <v>46050</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45962</v>
+      </c>
+      <c r="C39" s="1">
+        <v>45975</v>
+      </c>
+      <c r="D39" s="1">
+        <v>46050</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B40" s="2">
+        <v>45962</v>
+      </c>
+      <c r="C40" s="1">
         <v>45973</v>
       </c>
-      <c r="C38" s="1">
+      <c r="D40" s="1">
         <v>45980</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38">
+      <c r="E40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40">
         <v>7</v>
       </c>
-      <c r="F38" s="5">
+      <c r="G40" s="5">
         <v>0.63</v>
       </c>
-      <c r="G38" s="5">
+      <c r="H40" s="5">
         <v>0.63</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B41" s="2">
+        <v>45962</v>
+      </c>
+      <c r="C41" s="1">
         <v>45973</v>
       </c>
-      <c r="C39" s="1">
+      <c r="D41" s="1">
         <v>45980</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
-      <c r="F39" s="5">
+      <c r="E41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41" s="5">
         <v>0.26</v>
       </c>
-      <c r="G39" s="5">
+      <c r="H41" s="5">
         <v>0.26</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="1">
-        <v>45961</v>
-      </c>
-      <c r="C40" s="1">
-        <v>45975</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E40">
-        <v>6</v>
-      </c>
-      <c r="F40" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="G40" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="1">
-        <v>45961</v>
-      </c>
-      <c r="C41" s="1">
-        <v>45975</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41" s="5">
-        <v>0.93</v>
-      </c>
-      <c r="G41" s="5">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="2">
+        <v>45962</v>
+      </c>
+      <c r="C42" s="1">
         <v>45968</v>
       </c>
-      <c r="C42" s="1">
+      <c r="D42" s="1">
         <v>45975</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E42">
+      <c r="E42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42">
         <v>1</v>
-      </c>
-      <c r="F42" s="5">
-        <v>0.8</v>
       </c>
       <c r="G42" s="5">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="2">
+        <v>45931</v>
+      </c>
+      <c r="C43" s="1">
+        <v>45961</v>
+      </c>
+      <c r="D43" s="1">
+        <v>45975</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="2">
+        <v>45931</v>
+      </c>
+      <c r="C44" s="1">
+        <v>45961</v>
+      </c>
+      <c r="D44" s="1">
+        <v>45975</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B45" s="2">
+        <v>45931</v>
+      </c>
+      <c r="C45" s="1">
         <v>45961</v>
       </c>
-      <c r="C43" s="1">
+      <c r="D45" s="1">
         <v>45974</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43">
+      <c r="E45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45">
         <v>1</v>
       </c>
-      <c r="F43" s="5">
+      <c r="G45" s="5">
         <v>1.33</v>
       </c>
-      <c r="G43" s="5">
+      <c r="H45" s="5">
         <v>1.33</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B46" s="2">
+        <v>45931</v>
+      </c>
+      <c r="C46" s="1">
         <v>45961</v>
       </c>
-      <c r="C44" s="1">
+      <c r="D46" s="1">
         <v>45968</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E44">
+      <c r="E46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46">
         <v>8</v>
       </c>
-      <c r="F44" s="5">
+      <c r="G46" s="5">
         <v>0.66</v>
       </c>
-      <c r="G44" s="5">
+      <c r="H46" s="5">
         <v>0.66</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B47" s="2">
+        <v>45931</v>
+      </c>
+      <c r="C47" s="1">
         <v>45961</v>
       </c>
-      <c r="C45" s="1">
+      <c r="D47" s="1">
         <v>45968</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45">
+      <c r="E47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47">
         <v>8</v>
       </c>
-      <c r="F45" s="5">
+      <c r="G47" s="5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G45" s="5">
+      <c r="H47" s="5">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B48" s="2">
+        <v>45931</v>
+      </c>
+      <c r="C48" s="1">
         <v>45945</v>
       </c>
-      <c r="C46" s="1">
+      <c r="D48" s="1">
         <v>45952</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46">
-        <v>2</v>
-      </c>
-      <c r="F46" s="5">
+      <c r="E48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48" s="5">
         <v>0.22</v>
       </c>
-      <c r="G46" s="5">
+      <c r="H48" s="5">
         <v>0.22</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B49" s="2">
+        <v>45931</v>
+      </c>
+      <c r="C49" s="1">
         <v>45940</v>
       </c>
-      <c r="C47" s="1">
+      <c r="D49" s="1">
         <v>45947</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E47">
+      <c r="E49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49">
         <v>7</v>
       </c>
-      <c r="F47" s="5">
+      <c r="G49" s="5">
         <v>0.63</v>
       </c>
-      <c r="G47" s="5">
+      <c r="H49" s="5">
         <v>0.63</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B50" s="2">
+        <v>45931</v>
+      </c>
+      <c r="C50" s="1">
         <v>45940</v>
       </c>
-      <c r="C48" s="1">
+      <c r="D50" s="1">
         <v>45947</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E48">
-        <v>2</v>
-      </c>
-      <c r="F48" s="5">
+      <c r="E50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50" s="5">
         <v>0.26</v>
       </c>
-      <c r="G48" s="5">
+      <c r="H50" s="5">
         <v>0.26</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B51" s="2">
+        <v>45901</v>
+      </c>
+      <c r="C51" s="1">
         <v>45930</v>
       </c>
-      <c r="C49" s="1">
+      <c r="D51" s="1">
         <v>45944</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E49">
+      <c r="E51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51">
         <v>6</v>
       </c>
-      <c r="F49" s="5">
+      <c r="G51" s="5">
         <v>0.6</v>
       </c>
-      <c r="G49" s="5">
+      <c r="H51" s="5">
         <v>0.6</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B52" s="2">
+        <v>45901</v>
+      </c>
+      <c r="C52" s="1">
         <v>45930</v>
       </c>
-      <c r="C50" s="1">
+      <c r="D52" s="1">
         <v>45944</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E50">
+      <c r="E52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F52">
         <v>1</v>
       </c>
-      <c r="F50" s="5">
+      <c r="G52" s="5">
         <v>0.93</v>
       </c>
-      <c r="G50" s="5">
+      <c r="H52" s="5">
         <v>0.93</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B53" s="2">
+        <v>45901</v>
+      </c>
+      <c r="C53" s="1">
         <v>45930</v>
       </c>
-      <c r="C51" s="1">
+      <c r="D53" s="1">
         <v>45937</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E51">
+      <c r="E53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F53">
         <v>6</v>
       </c>
-      <c r="F51" s="5">
+      <c r="G53" s="5">
         <v>0.5</v>
       </c>
-      <c r="G51" s="5">
+      <c r="H53" s="5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B54" s="2">
+        <v>45901</v>
+      </c>
+      <c r="C54" s="1">
         <v>45930</v>
       </c>
-      <c r="C52" s="1">
+      <c r="D54" s="1">
         <v>45937</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E52">
+      <c r="E54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F54">
         <v>8</v>
       </c>
-      <c r="F52" s="5">
+      <c r="G54" s="5">
         <v>0.64</v>
       </c>
-      <c r="G52" s="5">
+      <c r="H54" s="5">
         <v>0.64</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B55" s="2">
+        <v>45901</v>
+      </c>
+      <c r="C55" s="1">
         <v>45910</v>
       </c>
-      <c r="C53" s="1">
+      <c r="D55" s="1">
         <v>45917</v>
       </c>
-      <c r="D53" t="s">
-        <v>63</v>
-      </c>
-      <c r="E53">
+      <c r="E55" t="s">
+        <v>63</v>
+      </c>
+      <c r="F55">
         <v>6</v>
       </c>
-      <c r="F53" s="5">
+      <c r="G55" s="5">
         <v>0.51</v>
       </c>
-      <c r="G53" s="5">
+      <c r="H55" s="5">
         <v>0.51</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B56" s="2">
+        <v>45870</v>
+      </c>
+      <c r="C56" s="1">
         <v>45898</v>
       </c>
-      <c r="C54" s="1">
+      <c r="D56" s="1">
         <v>45912</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E54">
+      <c r="E56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F56">
         <v>6</v>
       </c>
-      <c r="F54" s="5">
+      <c r="G56" s="5">
         <v>0.6</v>
       </c>
-      <c r="G54" s="5">
+      <c r="H56" s="5">
         <v>0.6</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B57" s="2">
+        <v>45870</v>
+      </c>
+      <c r="C57" s="1">
         <v>45898</v>
       </c>
-      <c r="C55" s="1">
+      <c r="D57" s="1">
         <v>45905</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E55">
+      <c r="E57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F57">
         <v>6</v>
       </c>
-      <c r="F55" s="5">
+      <c r="G57" s="5">
         <v>0.5</v>
       </c>
-      <c r="G55" s="5">
+      <c r="H57" s="5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B58" s="2">
+        <v>45870</v>
+      </c>
+      <c r="C58" s="1">
         <v>45898</v>
       </c>
-      <c r="C56" s="1">
+      <c r="D58" s="1">
         <v>45905</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E56">
+      <c r="E58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F58">
         <v>6</v>
       </c>
-      <c r="F56" s="5">
+      <c r="G58" s="5">
         <v>0.54</v>
       </c>
-      <c r="G56" s="5">
+      <c r="H58" s="5">
         <v>0.54</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>45</v>
-      </c>
-      <c r="B57" s="1">
-        <v>46014</v>
-      </c>
-      <c r="D57" t="s">
-        <v>62</v>
-      </c>
-      <c r="E57">
-        <v>2</v>
-      </c>
-      <c r="F57" s="5">
-        <v>0.24</v>
-      </c>
-      <c r="G57" s="5">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>45</v>
-      </c>
-      <c r="B58" s="1">
-        <v>46014</v>
-      </c>
-      <c r="D58" t="s">
-        <v>62</v>
-      </c>
-      <c r="E58">
-        <v>2</v>
-      </c>
-      <c r="F58" s="5">
-        <v>0.24</v>
-      </c>
-      <c r="G58" s="5">
-        <v>0.2</v>
-      </c>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L62" s="4"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J63" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G58" xr:uid="{DE7E17A1-8817-4C43-A358-96590FEA9856}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G58">
-      <sortCondition descending="1" ref="C1:C58"/>
+  <autoFilter ref="A1:H1" xr:uid="{DE7E17A1-8817-4C43-A358-96590FEA9856}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H58">
+      <sortCondition descending="1" ref="C1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0669AF3F-A96A-4E2E-9FFF-A1D96A6E4684}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="3"/>
     <col min="3" max="3" width="9.140625" style="4"/>
   </cols>
@@ -2873,6 +3790,36 @@
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45931</v>
+      </c>
+      <c r="B4" s="4">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>45962</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1.8E-3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Carteira.xlsx
+++ b/Carteira.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Douglas Malvares\Box\INVEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701363D7-C2D3-49E8-A9D8-2A6CE251B44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BD74EB-82B1-481C-A8C2-01C33AED5B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="881" activeTab="3" xr2:uid="{A7CB2594-04AB-403C-897F-43306B7CB2E0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="881" activeTab="2" xr2:uid="{A7CB2594-04AB-403C-897F-43306B7CB2E0}"/>
   </bookViews>
   <sheets>
     <sheet name="PAPEIS" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="INDICES" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">LANÇAMENTOS!$A$1:$D$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">LANÇAMENTOS!$A$1:$D$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PROVENTOS!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="70">
   <si>
     <t>Data da Compra</t>
   </si>
@@ -652,7 +652,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F20"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,7 +1029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974C78EB-F485-4560-AB0A-08A5AC33F34C}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="C6" sqref="C6:C10"/>
     </sheetView>
   </sheetViews>
@@ -1674,14 +1674,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A73A70-EFB8-42A5-8800-F5422BE9C99F}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1691,7 +1690,7 @@
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1705,7 +1704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45880</v>
       </c>
@@ -1718,12 +1717,8 @@
       <c r="D2">
         <v>9.09</v>
       </c>
-      <c r="E2">
-        <f>C2*D2</f>
-        <v>45.45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45880</v>
       </c>
@@ -1737,7 +1732,7 @@
         <v>9.43</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45880</v>
       </c>
@@ -1751,7 +1746,7 @@
         <v>7.59</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45888</v>
       </c>
@@ -1765,7 +1760,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45888</v>
       </c>
@@ -1779,7 +1774,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45888</v>
       </c>
@@ -1793,7 +1788,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45898</v>
       </c>
@@ -1807,7 +1802,7 @@
         <v>7.72</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45908</v>
       </c>
@@ -1821,7 +1816,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45908</v>
       </c>
@@ -1835,7 +1830,7 @@
         <v>97.1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45908</v>
       </c>
@@ -1849,7 +1844,7 @@
         <v>7.64</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45910</v>
       </c>
@@ -1863,7 +1858,7 @@
         <v>7.44</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45926</v>
       </c>
@@ -1877,7 +1872,7 @@
         <v>8.86</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45937</v>
       </c>
@@ -1891,7 +1886,7 @@
         <v>104.08</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45937</v>
       </c>
@@ -1905,7 +1900,7 @@
         <v>9.5399999999999991</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45937</v>
       </c>
@@ -1919,7 +1914,7 @@
         <v>7.66</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45940</v>
       </c>
@@ -1933,7 +1928,7 @@
         <v>8.85</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45957</v>
       </c>
@@ -1947,7 +1942,7 @@
         <v>30.08</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45957</v>
       </c>
@@ -1961,7 +1956,7 @@
         <v>10.84</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45957</v>
       </c>
@@ -1975,7 +1970,7 @@
         <v>11.38</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45957</v>
       </c>
@@ -1989,7 +1984,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45957</v>
       </c>
@@ -2003,7 +1998,7 @@
         <v>12.43</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45957</v>
       </c>
@@ -2017,7 +2012,7 @@
         <v>8.94</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45966</v>
       </c>
@@ -2031,7 +2026,7 @@
         <v>65.459999999999994</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45966</v>
       </c>
@@ -2045,7 +2040,7 @@
         <v>78.569999999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45987</v>
       </c>
@@ -2059,7 +2054,7 @@
         <v>43.94</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>46000</v>
       </c>
@@ -2073,7 +2068,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>46007</v>
       </c>
@@ -2087,7 +2082,7 @@
         <v>107.4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>46007</v>
       </c>
@@ -2101,7 +2096,7 @@
         <v>20.420000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>46007</v>
       </c>
@@ -2115,7 +2110,7 @@
         <v>11.69</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>46027</v>
       </c>
@@ -2129,7 +2124,7 @@
         <v>14.22</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>46027</v>
       </c>
@@ -2143,7 +2138,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>46027</v>
       </c>
@@ -2157,7 +2152,7 @@
         <v>11.69</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>46027</v>
       </c>
@@ -2171,7 +2166,7 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>46029</v>
       </c>
@@ -2185,14 +2180,22 @@
         <v>19.600000000000001</v>
       </c>
     </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>7.17</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D35" xr:uid="{61A73A70-EFB8-42A5-8800-F5422BE9C99F}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="VGIR11"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D36" xr:uid="{61A73A70-EFB8-42A5-8800-F5422BE9C99F}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -2201,8 +2204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7E17A1-8817-4C43-A358-96590FEA9856}">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C61" sqref="C61"/>

--- a/Carteira.xlsx
+++ b/Carteira.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Douglas Malvares\Box\INVEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BD74EB-82B1-481C-A8C2-01C33AED5B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784E633D-D67B-4F7D-9968-C481791F6629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="881" activeTab="2" xr2:uid="{A7CB2594-04AB-403C-897F-43306B7CB2E0}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="70">
   <si>
     <t>Data da Compra</t>
   </si>
@@ -1674,13 +1674,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A73A70-EFB8-42A5-8800-F5422BE9C99F}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomRight" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2192,6 +2192,48 @@
       </c>
       <c r="D36">
         <v>7.17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>97.04</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>8.98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>7.19</v>
       </c>
     </row>
   </sheetData>

--- a/Carteira.xlsx
+++ b/Carteira.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Douglas Malvares\Box\INVEST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douglasmalvares/Box Sync/INVEST/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784E633D-D67B-4F7D-9968-C481791F6629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DE81D0-506B-284F-A2D7-EF2DE91F9E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="881" activeTab="2" xr2:uid="{A7CB2594-04AB-403C-897F-43306B7CB2E0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" tabRatio="881" activeTab="3" xr2:uid="{A7CB2594-04AB-403C-897F-43306B7CB2E0}"/>
   </bookViews>
   <sheets>
     <sheet name="PAPEIS" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">LANÇAMENTOS!$A$1:$D$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PROVENTOS!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PROVENTOS!$A$1:$H$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="70">
   <si>
     <t>Data da Compra</t>
   </si>
@@ -306,7 +306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -314,6 +314,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,16 +656,16 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -684,7 +685,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -704,7 +705,7 @@
         <v>45901</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -724,7 +725,7 @@
         <v>45870</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -744,7 +745,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -764,7 +765,7 @@
         <v>45901</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -784,7 +785,7 @@
         <v>45870</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -804,7 +805,7 @@
         <v>45901</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -824,7 +825,7 @@
         <v>45870</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -844,7 +845,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -864,7 +865,7 @@
         <v>45992</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -884,7 +885,7 @@
         <v>45962</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -901,7 +902,7 @@
         <v>45962</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -918,7 +919,7 @@
         <v>45962</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -935,7 +936,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -952,7 +953,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -969,7 +970,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -986,7 +987,7 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -1003,7 +1004,7 @@
         <v>45992</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -1033,13 +1034,13 @@
       <selection activeCell="C6" sqref="C6:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1050,7 +1051,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1061,7 +1062,7 @@
         <v>7.32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1072,7 +1073,7 @@
         <v>7.42</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1083,7 +1084,7 @@
         <v>7.43</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1094,7 +1095,7 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1105,7 +1106,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1116,7 +1117,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1127,7 +1128,7 @@
         <v>8.81</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1138,7 +1139,7 @@
         <v>9.16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1149,7 +1150,7 @@
         <v>9.06</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1160,7 +1161,7 @@
         <v>102.64</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1171,7 +1172,7 @@
         <v>105.36</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1182,7 +1183,7 @@
         <v>107.51</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1193,7 +1194,7 @@
         <v>8.49</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1204,7 +1205,7 @@
         <v>8.56</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1215,7 +1216,7 @@
         <v>8.64</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1226,7 +1227,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1237,7 +1238,7 @@
         <v>9.23</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1248,7 +1249,7 @@
         <v>9.3699999999999992</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1259,7 +1260,7 @@
         <v>9.3699999999999992</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1270,7 +1271,7 @@
         <v>9.5299999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -1281,7 +1282,7 @@
         <v>9.5399999999999991</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1292,7 +1293,7 @@
         <v>94.96</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1303,7 +1304,7 @@
         <v>98.75</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1314,7 +1315,7 @@
         <v>100.61</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1325,7 +1326,7 @@
         <v>97.97</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1336,7 +1337,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1347,7 +1348,7 @@
         <v>7.53</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1358,7 +1359,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1369,7 +1370,7 @@
         <v>7.01</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1380,7 +1381,7 @@
         <v>7.23</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1391,7 +1392,7 @@
         <v>9.19</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1402,7 +1403,7 @@
         <v>9.33</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1413,7 +1414,7 @@
         <v>9.83</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1424,7 +1425,7 @@
         <v>108.06</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1435,7 +1436,7 @@
         <v>79.489999999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1446,7 +1447,7 @@
         <v>81.99</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1457,7 +1458,7 @@
         <v>64.38</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1468,7 +1469,7 @@
         <v>71.959999999999994</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1479,7 +1480,7 @@
         <v>42.78</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1490,7 +1491,7 @@
         <v>48.51</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1501,7 +1502,7 @@
         <v>29.68</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -1512,7 +1513,7 @@
         <v>31.78</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -1523,7 +1524,7 @@
         <v>30.82</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>41</v>
       </c>
@@ -1534,7 +1535,7 @@
         <v>10.86</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>41</v>
       </c>
@@ -1545,7 +1546,7 @@
         <v>11.57</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>41</v>
       </c>
@@ -1556,7 +1557,7 @@
         <v>11.68</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -1567,7 +1568,7 @@
         <v>21.86</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -1578,7 +1579,7 @@
         <v>22.46</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -1589,7 +1590,7 @@
         <v>21.92</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -1600,7 +1601,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>43</v>
       </c>
@@ -1611,7 +1612,7 @@
         <v>14.51</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -1622,7 +1623,7 @@
         <v>14.08</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -1633,7 +1634,7 @@
         <v>20.05</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>45</v>
       </c>
@@ -1644,7 +1645,7 @@
         <v>11.32</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>45</v>
       </c>
@@ -1655,7 +1656,7 @@
         <v>11.51</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>45</v>
       </c>
@@ -1676,21 +1677,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A73A70-EFB8-42A5-8800-F5422BE9C99F}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1704,7 +1705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>45880</v>
       </c>
@@ -1718,7 +1719,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>45880</v>
       </c>
@@ -1732,7 +1733,7 @@
         <v>9.43</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>45880</v>
       </c>
@@ -1746,7 +1747,7 @@
         <v>7.59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>45888</v>
       </c>
@@ -1760,7 +1761,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>45888</v>
       </c>
@@ -1774,7 +1775,7 @@
         <v>9.5500000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>45888</v>
       </c>
@@ -1788,7 +1789,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>45898</v>
       </c>
@@ -1802,7 +1803,7 @@
         <v>7.72</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>45908</v>
       </c>
@@ -1816,7 +1817,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>45908</v>
       </c>
@@ -1830,7 +1831,7 @@
         <v>97.1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>45908</v>
       </c>
@@ -1844,7 +1845,7 @@
         <v>7.64</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>45910</v>
       </c>
@@ -1858,7 +1859,7 @@
         <v>7.44</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>45926</v>
       </c>
@@ -1872,7 +1873,7 @@
         <v>8.86</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>45937</v>
       </c>
@@ -1886,7 +1887,7 @@
         <v>104.08</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>45937</v>
       </c>
@@ -1900,7 +1901,7 @@
         <v>9.5399999999999991</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>45937</v>
       </c>
@@ -1914,7 +1915,7 @@
         <v>7.66</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>45940</v>
       </c>
@@ -1928,7 +1929,7 @@
         <v>8.85</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>45957</v>
       </c>
@@ -1942,7 +1943,7 @@
         <v>30.08</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>45957</v>
       </c>
@@ -1956,7 +1957,7 @@
         <v>10.84</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>45957</v>
       </c>
@@ -1970,7 +1971,7 @@
         <v>11.38</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>45957</v>
       </c>
@@ -1984,7 +1985,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>45957</v>
       </c>
@@ -1998,7 +1999,7 @@
         <v>12.43</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>45957</v>
       </c>
@@ -2012,7 +2013,7 @@
         <v>8.94</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>45966</v>
       </c>
@@ -2026,7 +2027,7 @@
         <v>65.459999999999994</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>45966</v>
       </c>
@@ -2040,7 +2041,7 @@
         <v>78.569999999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>45987</v>
       </c>
@@ -2054,7 +2055,7 @@
         <v>43.94</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>46000</v>
       </c>
@@ -2068,7 +2069,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>46007</v>
       </c>
@@ -2082,7 +2083,7 @@
         <v>107.4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>46007</v>
       </c>
@@ -2096,7 +2097,7 @@
         <v>20.420000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>46007</v>
       </c>
@@ -2110,7 +2111,7 @@
         <v>11.69</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>46027</v>
       </c>
@@ -2124,7 +2125,7 @@
         <v>14.22</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>46027</v>
       </c>
@@ -2138,7 +2139,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>46027</v>
       </c>
@@ -2152,7 +2153,7 @@
         <v>11.69</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>46027</v>
       </c>
@@ -2166,7 +2167,7 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>46029</v>
       </c>
@@ -2180,7 +2181,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>46034</v>
       </c>
@@ -2194,7 +2195,7 @@
         <v>7.17</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>46034</v>
       </c>
@@ -2208,7 +2209,7 @@
         <v>97.04</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>46034</v>
       </c>
@@ -2222,7 +2223,7 @@
         <v>8.98</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>46034</v>
       </c>
@@ -2237,7 +2238,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D36" xr:uid="{61A73A70-EFB8-42A5-8800-F5422BE9C99F}"/>
+  <autoFilter ref="A1:D36" xr:uid="{61A73A70-EFB8-42A5-8800-F5422BE9C99F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
+      <sortCondition ref="A1:A39"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -2246,27 +2251,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7E17A1-8817-4C43-A358-96590FEA9856}">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C61" sqref="C61"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2292,18 +2297,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>45992</v>
+        <v>45870</v>
       </c>
       <c r="C2" s="1">
-        <v>46021</v>
+        <v>45898</v>
       </c>
       <c r="D2" s="1">
-        <v>46037</v>
+        <v>45905</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>63</v>
@@ -2312,567 +2317,573 @@
         <v>6</v>
       </c>
       <c r="G2" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45870</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45898</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45905</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.54</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45870</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45898</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45912</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5">
         <v>0.6</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H4" s="5">
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2">
-        <v>45992</v>
-      </c>
-      <c r="C3" s="1">
-        <v>46021</v>
-      </c>
-      <c r="D3" s="1">
-        <v>46037</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="5">
-        <v>2</v>
-      </c>
-      <c r="H3" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
-        <v>45992</v>
-      </c>
-      <c r="C4" s="1">
-        <v>46021</v>
-      </c>
-      <c r="D4" s="1">
-        <v>46036</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>45992</v>
+        <v>45901</v>
       </c>
       <c r="C5" s="1">
-        <v>46021</v>
+        <v>45910</v>
       </c>
       <c r="D5" s="1">
-        <v>46030</v>
-      </c>
-      <c r="E5" s="1" t="s">
+        <v>45917</v>
+      </c>
+      <c r="E5" t="s">
         <v>63</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G5" s="5">
-        <v>0.66</v>
+        <v>0.51</v>
       </c>
       <c r="H5" s="5">
-        <v>0.66</v>
+        <v>0.51</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45901</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45930</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2">
-        <v>45992</v>
-      </c>
-      <c r="C6" s="1">
-        <v>46021</v>
-      </c>
-      <c r="D6" s="1">
-        <v>46030</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6">
+      <c r="B7" s="2">
+        <v>45901</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45930</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45937</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7">
         <v>8</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G7" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45901</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45930</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45944</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45901</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45930</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45944</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45931</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45940</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45947</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45931</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45940</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45947</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45931</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45945</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45952</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45931</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45961</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45968</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45931</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45961</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45968</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14" s="5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H14" s="5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="2">
-        <v>45992</v>
-      </c>
-      <c r="C7" s="1">
-        <v>46014</v>
-      </c>
-      <c r="E7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0.24</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="2">
-        <v>45992</v>
-      </c>
-      <c r="C8" s="1">
-        <v>46014</v>
-      </c>
-      <c r="E8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0.24</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="2">
-        <v>45992</v>
-      </c>
-      <c r="C9" s="1">
-        <v>46013</v>
-      </c>
-      <c r="D9" s="1">
-        <v>46101</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0.59</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="2">
-        <v>45992</v>
-      </c>
-      <c r="C10" s="1">
-        <v>46013</v>
-      </c>
-      <c r="D10" s="1">
-        <v>46101</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0.35</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="2">
-        <v>45992</v>
-      </c>
-      <c r="C11" s="1">
-        <v>46013</v>
-      </c>
-      <c r="D11" s="1">
-        <v>46073</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0.94</v>
-      </c>
-      <c r="H11" s="5">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45931</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45961</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45974</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1.33</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45962</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45968</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45975</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="2">
-        <v>45992</v>
-      </c>
-      <c r="C12" s="1">
-        <v>46013</v>
-      </c>
-      <c r="D12" s="1">
-        <v>46021</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="2">
-        <v>45992</v>
-      </c>
-      <c r="C13" s="1">
-        <v>46013</v>
-      </c>
-      <c r="D13" s="1">
-        <v>46021</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="H13" s="5">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="2">
-        <v>45992</v>
-      </c>
-      <c r="C14" s="1">
-        <v>46010</v>
-      </c>
-      <c r="D14" s="1">
-        <v>46981</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="2">
-        <v>45992</v>
-      </c>
-      <c r="C15" s="1">
-        <v>46010</v>
-      </c>
-      <c r="D15" s="1">
-        <v>46610</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="2">
-        <v>45992</v>
-      </c>
-      <c r="C16" s="1">
-        <v>46010</v>
-      </c>
-      <c r="D16" s="1">
-        <v>46246</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0.83</v>
-      </c>
       <c r="H16" s="5">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B17" s="2">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="C17" s="1">
-        <v>46007</v>
+        <v>45961</v>
       </c>
       <c r="D17" s="1">
-        <v>46014</v>
+        <v>45975</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45931</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45961</v>
+      </c>
+      <c r="D18" s="1">
+        <v>45975</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18">
         <v>1</v>
       </c>
-      <c r="G17" s="5">
-        <v>0.92</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="G18" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45962</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45973</v>
+      </c>
+      <c r="D19" s="1">
+        <v>45980</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19">
+        <v>7</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2">
+        <v>45962</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45973</v>
+      </c>
+      <c r="D20" s="1">
+        <v>45980</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="2">
-        <v>45992</v>
-      </c>
-      <c r="C18" s="1">
-        <v>46006</v>
-      </c>
-      <c r="D18" s="1">
-        <v>46013</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18" s="5">
+      <c r="B21" s="2">
+        <v>45962</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45978</v>
+      </c>
+      <c r="D21" s="1">
+        <v>45986</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" s="5">
         <v>0.22</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H21" s="5">
         <v>0.22</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="2">
-        <v>45992</v>
-      </c>
-      <c r="C19" s="1">
-        <v>46002</v>
-      </c>
-      <c r="D19" s="1">
-        <v>46085</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19" s="5">
-        <v>1.54</v>
-      </c>
-      <c r="H19" s="5">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="2">
-        <v>45992</v>
-      </c>
-      <c r="C20" s="1">
-        <v>46002</v>
-      </c>
-      <c r="D20" s="1">
-        <v>46085</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20" s="5">
-        <v>3.14</v>
-      </c>
-      <c r="H20" s="5">
-        <v>2.67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="2">
-        <v>45992</v>
-      </c>
-      <c r="C21" s="1">
-        <v>46002</v>
-      </c>
-      <c r="D21" s="1">
-        <v>46029</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21" s="5">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="H21" s="5">
-        <v>2.4900000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B22" s="2">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="C22" s="1">
-        <v>46001</v>
+        <v>45989</v>
       </c>
       <c r="D22" s="1">
-        <v>46008</v>
+        <v>45996</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G22" s="5">
-        <v>0.63</v>
+        <v>0.66</v>
       </c>
       <c r="H22" s="5">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B23" s="2">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="C23" s="1">
-        <v>46001</v>
+        <v>45989</v>
       </c>
       <c r="D23" s="1">
-        <v>46008</v>
+        <v>45996</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G23" s="5">
-        <v>0.26</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H23" s="5">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2">
         <v>45992</v>
       </c>
       <c r="C24" s="1">
-        <v>46000</v>
+        <v>45992</v>
       </c>
       <c r="D24" s="1">
-        <v>46142</v>
+        <v>46002</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>62</v>
@@ -2881,39 +2892,39 @@
         <v>2</v>
       </c>
       <c r="G24" s="5">
-        <v>0.04</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H24" s="5">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B25" s="2">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="C25" s="1">
-        <v>46000</v>
+        <v>45989</v>
       </c>
       <c r="D25" s="1">
-        <v>46010</v>
+        <v>46002</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" s="5">
-        <v>1.55</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H25" s="5">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -2939,7 +2950,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -2965,7 +2976,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2991,7 +3002,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -3017,35 +3028,35 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B30" s="2">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="C30" s="1">
-        <v>45992</v>
+        <v>45989</v>
       </c>
       <c r="D30" s="1">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G30" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="H30" s="5">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="B31" s="2">
         <v>45962</v>
@@ -3054,163 +3065,163 @@
         <v>45989</v>
       </c>
       <c r="D31" s="1">
-        <v>46024</v>
+        <v>46003</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" s="5">
-        <v>0.05</v>
+        <v>0.93</v>
       </c>
       <c r="H31" s="5">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B32" s="2">
-        <v>45962</v>
+        <v>45992</v>
       </c>
       <c r="C32" s="1">
-        <v>45989</v>
+        <v>46001</v>
       </c>
       <c r="D32" s="1">
-        <v>46003</v>
+        <v>46008</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F32">
+        <v>7</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>6</v>
       </c>
-      <c r="G32" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="H32" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>9</v>
-      </c>
       <c r="B33" s="2">
-        <v>45962</v>
+        <v>45992</v>
       </c>
       <c r="C33" s="1">
-        <v>45989</v>
+        <v>46001</v>
       </c>
       <c r="D33" s="1">
-        <v>46003</v>
+        <v>46008</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C34" s="1">
+        <v>46000</v>
+      </c>
+      <c r="D34" s="1">
+        <v>46010</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" s="5">
+        <v>1.55</v>
+      </c>
+      <c r="H34" s="5">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C35" s="1">
+        <v>46006</v>
+      </c>
+      <c r="D35" s="1">
+        <v>46013</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C36" s="1">
+        <v>46007</v>
+      </c>
+      <c r="D36" s="1">
+        <v>46014</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36">
         <v>1</v>
       </c>
-      <c r="G33" s="5">
-        <v>0.93</v>
-      </c>
-      <c r="H33" s="5">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="2">
-        <v>45962</v>
-      </c>
-      <c r="C34" s="1">
-        <v>45989</v>
-      </c>
-      <c r="D34" s="1">
-        <v>46002</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" s="5">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="H34" s="5">
-        <v>1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="2">
-        <v>45962</v>
-      </c>
-      <c r="C35" s="1">
-        <v>45989</v>
-      </c>
-      <c r="D35" s="1">
-        <v>45996</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F35">
-        <v>8</v>
-      </c>
-      <c r="G35" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="H35" s="5">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="2">
-        <v>45962</v>
-      </c>
-      <c r="C36" s="1">
-        <v>45989</v>
-      </c>
-      <c r="D36" s="1">
-        <v>45996</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36">
-        <v>8</v>
-      </c>
       <c r="G36" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.92</v>
       </c>
       <c r="H36" s="5">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2">
-        <v>45962</v>
+        <v>45992</v>
       </c>
       <c r="C37" s="1">
-        <v>45978</v>
+        <v>46013</v>
       </c>
       <c r="D37" s="1">
-        <v>45986</v>
+        <v>46021</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>63</v>
@@ -3219,24 +3230,24 @@
         <v>2</v>
       </c>
       <c r="G37" s="5">
-        <v>0.22</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="H37" s="5">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2">
-        <v>45962</v>
+        <v>45992</v>
       </c>
       <c r="C38" s="1">
-        <v>45975</v>
+        <v>46013</v>
       </c>
       <c r="D38" s="1">
-        <v>46050</v>
+        <v>46021</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>63</v>
@@ -3245,24 +3256,24 @@
         <v>2</v>
       </c>
       <c r="G38" s="5">
-        <v>0.35</v>
+        <v>1.3</v>
       </c>
       <c r="H38" s="5">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2">
         <v>45962</v>
       </c>
       <c r="C39" s="1">
-        <v>45975</v>
+        <v>45989</v>
       </c>
       <c r="D39" s="1">
-        <v>46050</v>
+        <v>46024</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>62</v>
@@ -3271,518 +3282,586 @@
         <v>2</v>
       </c>
       <c r="G39" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C40" s="1">
+        <v>46002</v>
+      </c>
+      <c r="D40" s="1">
+        <v>46029</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40" s="5">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H40" s="5">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C41" s="1">
+        <v>46021</v>
+      </c>
+      <c r="D41" s="1">
+        <v>46030</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41">
+        <v>8</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C42" s="1">
+        <v>46021</v>
+      </c>
+      <c r="D42" s="1">
+        <v>46030</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42">
+        <v>8</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C43" s="1">
+        <v>46021</v>
+      </c>
+      <c r="D43" s="1">
+        <v>46036</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="H43" s="5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C44" s="1">
+        <v>46021</v>
+      </c>
+      <c r="D44" s="1">
+        <v>46037</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C45" s="1">
+        <v>46021</v>
+      </c>
+      <c r="D45" s="1">
+        <v>46037</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45" s="5">
+        <v>2</v>
+      </c>
+      <c r="H45" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="2">
+        <v>46023</v>
+      </c>
+      <c r="C46" s="1">
+        <v>46030</v>
+      </c>
+      <c r="D46" s="1">
+        <v>46037</v>
+      </c>
+      <c r="E46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="H46" s="5">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="2">
+        <v>45962</v>
+      </c>
+      <c r="C47" s="1">
+        <v>45975</v>
+      </c>
+      <c r="D47" s="1">
+        <v>46050</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="2">
+        <v>45962</v>
+      </c>
+      <c r="C48" s="1">
+        <v>45975</v>
+      </c>
+      <c r="D48" s="1">
+        <v>46050</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H48" s="5">
         <v>0.24</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C49" s="1">
+        <v>46013</v>
+      </c>
+      <c r="D49" s="1">
+        <v>46073</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="H49" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C50" s="1">
+        <v>46002</v>
+      </c>
+      <c r="D50" s="1">
+        <v>46085</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50" s="5">
+        <v>1.54</v>
+      </c>
+      <c r="H50" s="5">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C51" s="1">
+        <v>46002</v>
+      </c>
+      <c r="D51" s="1">
+        <v>46085</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51" s="5">
+        <v>3.14</v>
+      </c>
+      <c r="H51" s="5">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C52" s="1">
+        <v>46013</v>
+      </c>
+      <c r="D52" s="1">
+        <v>46101</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="H52" s="5">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C53" s="1">
+        <v>46013</v>
+      </c>
+      <c r="D53" s="1">
+        <v>46101</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="H53" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C54" s="1">
+        <v>46000</v>
+      </c>
+      <c r="D54" s="1">
+        <v>46142</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="H54" s="5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C55" s="1">
+        <v>46010</v>
+      </c>
+      <c r="D55" s="1">
+        <v>46246</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="H55" s="5">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C56" s="1">
+        <v>46010</v>
+      </c>
+      <c r="D56" s="1">
+        <v>46610</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="H56" s="5">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C57" s="1">
+        <v>46010</v>
+      </c>
+      <c r="D57" s="1">
+        <v>46981</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="H57" s="5">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C58" s="1">
+        <v>46014</v>
+      </c>
+      <c r="E58" t="s">
+        <v>62</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="H58" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59" s="2">
+        <v>45992</v>
+      </c>
+      <c r="C59" s="1">
+        <v>46014</v>
+      </c>
+      <c r="E59" t="s">
+        <v>62</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="H59" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="2">
+        <v>46023</v>
+      </c>
+      <c r="C60" s="1">
+        <v>46035</v>
+      </c>
+      <c r="D60" s="1">
+        <v>46042</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F60" s="7">
+        <v>2</v>
+      </c>
+      <c r="G60" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="H60" s="5">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="2">
-        <v>45962</v>
-      </c>
-      <c r="C40" s="1">
-        <v>45973</v>
-      </c>
-      <c r="D40" s="1">
-        <v>45980</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F40">
+      <c r="B61" s="2">
+        <v>46023</v>
+      </c>
+      <c r="C61" s="1">
+        <v>46035</v>
+      </c>
+      <c r="D61" s="1">
+        <v>46042</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F61" s="7">
         <v>7</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G61" s="5">
         <v>0.63</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H61" s="5">
         <v>0.63</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="2">
-        <v>45962</v>
-      </c>
-      <c r="C41" s="1">
-        <v>45973</v>
-      </c>
-      <c r="D41" s="1">
-        <v>45980</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-      <c r="G41" s="5">
-        <v>0.26</v>
-      </c>
-      <c r="H41" s="5">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="2">
-        <v>45962</v>
-      </c>
-      <c r="C42" s="1">
-        <v>45968</v>
-      </c>
-      <c r="D42" s="1">
-        <v>45975</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="H42" s="5">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="2">
-        <v>45931</v>
-      </c>
-      <c r="C43" s="1">
-        <v>45961</v>
-      </c>
-      <c r="D43" s="1">
-        <v>45975</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F43">
-        <v>6</v>
-      </c>
-      <c r="G43" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="H43" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="2">
-        <v>45931</v>
-      </c>
-      <c r="C44" s="1">
-        <v>45961</v>
-      </c>
-      <c r="D44" s="1">
-        <v>45975</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" s="5">
-        <v>0.93</v>
-      </c>
-      <c r="H44" s="5">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="2">
-        <v>45931</v>
-      </c>
-      <c r="C45" s="1">
-        <v>45961</v>
-      </c>
-      <c r="D45" s="1">
-        <v>45974</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" s="5">
-        <v>1.33</v>
-      </c>
-      <c r="H45" s="5">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="2">
-        <v>45931</v>
-      </c>
-      <c r="C46" s="1">
-        <v>45961</v>
-      </c>
-      <c r="D46" s="1">
-        <v>45968</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F46">
-        <v>8</v>
-      </c>
-      <c r="G46" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="H46" s="5">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="2">
-        <v>45931</v>
-      </c>
-      <c r="C47" s="1">
-        <v>45961</v>
-      </c>
-      <c r="D47" s="1">
-        <v>45968</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F47">
-        <v>8</v>
-      </c>
-      <c r="G47" s="5">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="H47" s="5">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="2">
-        <v>45931</v>
-      </c>
-      <c r="C48" s="1">
-        <v>45945</v>
-      </c>
-      <c r="D48" s="1">
-        <v>45952</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F48">
-        <v>2</v>
-      </c>
-      <c r="G48" s="5">
-        <v>0.22</v>
-      </c>
-      <c r="H48" s="5">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="2">
-        <v>45931</v>
-      </c>
-      <c r="C49" s="1">
-        <v>45940</v>
-      </c>
-      <c r="D49" s="1">
-        <v>45947</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F49">
-        <v>7</v>
-      </c>
-      <c r="G49" s="5">
-        <v>0.63</v>
-      </c>
-      <c r="H49" s="5">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" s="2">
-        <v>45931</v>
-      </c>
-      <c r="C50" s="1">
-        <v>45940</v>
-      </c>
-      <c r="D50" s="1">
-        <v>45947</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F50">
-        <v>2</v>
-      </c>
-      <c r="G50" s="5">
-        <v>0.26</v>
-      </c>
-      <c r="H50" s="5">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="2">
-        <v>45901</v>
-      </c>
-      <c r="C51" s="1">
-        <v>45930</v>
-      </c>
-      <c r="D51" s="1">
-        <v>45944</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F51">
-        <v>6</v>
-      </c>
-      <c r="G51" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="H51" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" s="2">
-        <v>45901</v>
-      </c>
-      <c r="C52" s="1">
-        <v>45930</v>
-      </c>
-      <c r="D52" s="1">
-        <v>45944</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52" s="5">
-        <v>0.93</v>
-      </c>
-      <c r="H52" s="5">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="2">
-        <v>45901</v>
-      </c>
-      <c r="C53" s="1">
-        <v>45930</v>
-      </c>
-      <c r="D53" s="1">
-        <v>45937</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F53">
-        <v>6</v>
-      </c>
-      <c r="G53" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="H53" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" s="2">
-        <v>45901</v>
-      </c>
-      <c r="C54" s="1">
-        <v>45930</v>
-      </c>
-      <c r="D54" s="1">
-        <v>45937</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F54">
-        <v>8</v>
-      </c>
-      <c r="G54" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="H54" s="5">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" s="2">
-        <v>45901</v>
-      </c>
-      <c r="C55" s="1">
-        <v>45910</v>
-      </c>
-      <c r="D55" s="1">
-        <v>45917</v>
-      </c>
-      <c r="E55" t="s">
-        <v>63</v>
-      </c>
-      <c r="F55">
-        <v>6</v>
-      </c>
-      <c r="G55" s="5">
-        <v>0.51</v>
-      </c>
-      <c r="H55" s="5">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>11</v>
-      </c>
-      <c r="B56" s="2">
-        <v>45870</v>
-      </c>
-      <c r="C56" s="1">
-        <v>45898</v>
-      </c>
-      <c r="D56" s="1">
-        <v>45912</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F56">
-        <v>6</v>
-      </c>
-      <c r="G56" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="H56" s="5">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="2">
-        <v>45870</v>
-      </c>
-      <c r="C57" s="1">
-        <v>45898</v>
-      </c>
-      <c r="D57" s="1">
-        <v>45905</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F57">
-        <v>6</v>
-      </c>
-      <c r="G57" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="H57" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" s="2">
-        <v>45870</v>
-      </c>
-      <c r="C58" s="1">
-        <v>45898</v>
-      </c>
-      <c r="D58" s="1">
-        <v>45905</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F58">
-        <v>6</v>
-      </c>
-      <c r="G58" s="5">
-        <v>0.54</v>
-      </c>
-      <c r="H58" s="5">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J63" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{DE7E17A1-8817-4C43-A358-96590FEA9856}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H58">
-      <sortCondition descending="1" ref="C1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:H60" xr:uid="{DE7E17A1-8817-4C43-A358-96590FEA9856}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -3795,14 +3874,14 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="3"/>
+    <col min="3" max="3" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -3813,7 +3892,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45870</v>
       </c>
@@ -3824,7 +3903,7 @@
         <v>1.1599999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45901</v>
       </c>
@@ -3835,7 +3914,7 @@
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>45931</v>
       </c>
@@ -3846,7 +3925,7 @@
         <v>1.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45962</v>
       </c>
@@ -3857,7 +3936,7 @@
         <v>1.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45992</v>
       </c>
